--- a/src/Server and Website/Data Analysis/Anshul Analysis/ANSHUL_YOGA.xlsx
+++ b/src/Server and Website/Data Analysis/Anshul Analysis/ANSHUL_YOGA.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="patient data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -424,9 +423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,17 +736,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection sqref="A1:A119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -754,11 +765,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>96</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>73.540000000000006</v>
       </c>
       <c r="C2" s="1">
@@ -771,11 +782,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3">
         <v>74.489999999999995</v>
       </c>
       <c r="C3" s="1">
@@ -788,11 +799,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3">
         <v>79.66</v>
       </c>
       <c r="C4" s="1">
@@ -805,11 +816,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3">
         <v>71.03</v>
       </c>
       <c r="C5" s="1">
@@ -822,11 +833,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3">
         <v>74.959999999999994</v>
       </c>
       <c r="C6" s="1">
@@ -839,11 +850,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>97</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3">
         <v>71.209999999999994</v>
       </c>
       <c r="C7" s="1">
@@ -856,11 +867,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>98</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3">
         <v>75.55</v>
       </c>
       <c r="C8" s="1">
@@ -873,11 +884,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3">
         <v>74.64</v>
       </c>
       <c r="C9" s="1">
@@ -890,11 +901,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3">
         <v>75.83</v>
       </c>
       <c r="C10" s="1">
@@ -907,11 +918,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>97</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3">
         <v>75.34</v>
       </c>
       <c r="C11" s="1">
@@ -924,11 +935,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>98</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3">
         <v>76.680000000000007</v>
       </c>
       <c r="C12" s="1">
@@ -941,15 +952,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>98</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>98</v>
+      </c>
+      <c r="B13" s="3">
         <v>75.88</v>
       </c>
       <c r="C13" s="1">
-        <v>22.44</v>
+        <v>15.24</v>
       </c>
       <c r="D13" s="1">
         <v>30.95</v>
@@ -958,11 +969,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>96</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3">
         <v>78.05</v>
       </c>
       <c r="C14" s="1">
@@ -975,15 +986,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>96</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>74.37</v>
       </c>
       <c r="C15" s="1">
-        <v>24.6</v>
+        <v>14.82</v>
       </c>
       <c r="D15" s="1">
         <v>31.29</v>
@@ -992,15 +1003,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>96</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>97</v>
+      </c>
+      <c r="B16" s="3">
         <v>75.95</v>
       </c>
       <c r="C16" s="1">
-        <v>29.44</v>
+        <v>12.01</v>
       </c>
       <c r="D16" s="1">
         <v>31.31</v>
@@ -1009,11 +1020,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>97</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3">
         <v>76.33</v>
       </c>
       <c r="C17" s="1">
@@ -1026,11 +1037,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3">
         <v>74.91</v>
       </c>
       <c r="C18" s="1">
@@ -1043,11 +1054,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>97</v>
+      </c>
+      <c r="B19" s="3">
         <v>70.150000000000006</v>
       </c>
       <c r="C19" s="1">
@@ -1060,11 +1071,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>96</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>97</v>
+      </c>
+      <c r="B20" s="3">
         <v>72.12</v>
       </c>
       <c r="C20" s="1">
@@ -1077,11 +1088,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>95</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3">
         <v>72.61</v>
       </c>
       <c r="C21" s="1">
@@ -1094,11 +1105,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>94</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>98</v>
+      </c>
+      <c r="B22" s="3">
         <v>72.81</v>
       </c>
       <c r="C22" s="1">
@@ -1111,15 +1122,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>94</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>98</v>
+      </c>
+      <c r="B23" s="3">
         <v>75.34</v>
       </c>
       <c r="C23" s="1">
-        <v>18.899999999999999</v>
+        <v>14.26</v>
       </c>
       <c r="D23" s="1">
         <v>25.65</v>
@@ -1128,15 +1139,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>96</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>99</v>
+      </c>
+      <c r="B24" s="3">
         <v>74.92</v>
       </c>
       <c r="C24" s="1">
-        <v>23.12</v>
+        <v>13.21</v>
       </c>
       <c r="D24" s="1">
         <v>26.91</v>
@@ -1145,15 +1156,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>96</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>73.459999999999994</v>
       </c>
       <c r="C25" s="1">
-        <v>23.02</v>
+        <v>12.24</v>
       </c>
       <c r="D25" s="1">
         <v>27.87</v>
@@ -1162,15 +1173,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>98</v>
+      </c>
+      <c r="B26" s="3">
         <v>76.98</v>
       </c>
       <c r="C26" s="1">
-        <v>28.87</v>
+        <v>15.36</v>
       </c>
       <c r="D26" s="1">
         <v>27.93</v>
@@ -1179,11 +1190,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>94</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>97</v>
+      </c>
+      <c r="B27" s="3">
         <v>75.87</v>
       </c>
       <c r="C27" s="1">
@@ -1196,11 +1207,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>94</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>97</v>
+      </c>
+      <c r="B28" s="3">
         <v>77.23</v>
       </c>
       <c r="C28" s="1">
@@ -1213,11 +1224,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3">
         <v>75.16</v>
       </c>
       <c r="C29" s="1">
@@ -1230,15 +1241,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>96</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3">
         <v>77.73</v>
       </c>
       <c r="C30" s="1">
-        <v>20.28</v>
+        <v>16.21</v>
       </c>
       <c r="D30" s="1">
         <v>29.97</v>
@@ -1247,15 +1258,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>97</v>
+      </c>
+      <c r="B31" s="3">
         <v>73.69</v>
       </c>
       <c r="C31" s="1">
-        <v>24.69</v>
+        <v>14.31</v>
       </c>
       <c r="D31" s="1">
         <v>30.19</v>
@@ -1264,15 +1275,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>96</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3">
         <v>76.260000000000005</v>
       </c>
       <c r="C32" s="1">
-        <v>23.09</v>
+        <v>13.21</v>
       </c>
       <c r="D32" s="1">
         <v>30.23</v>
@@ -1281,15 +1292,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>98</v>
+      </c>
+      <c r="B33" s="3">
         <v>72.53</v>
       </c>
       <c r="C33" s="1">
-        <v>26.27</v>
+        <v>12.65</v>
       </c>
       <c r="D33" s="1">
         <v>30.26</v>
@@ -1298,11 +1309,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>96</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>75.41</v>
       </c>
       <c r="C34" s="1">
@@ -1315,15 +1326,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>94</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>97</v>
+      </c>
+      <c r="B35" s="3">
         <v>73.13</v>
       </c>
       <c r="C35" s="1">
-        <v>29.5</v>
+        <v>13.41</v>
       </c>
       <c r="D35" s="1">
         <v>31.24</v>
@@ -1332,11 +1343,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>94</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3">
         <v>74.47</v>
       </c>
       <c r="C36" s="1">
@@ -1349,15 +1360,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>96</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>97</v>
+      </c>
+      <c r="B37" s="3">
         <v>75.930000000000007</v>
       </c>
       <c r="C37" s="1">
-        <v>10.34</v>
+        <v>12.35</v>
       </c>
       <c r="D37" s="1">
         <v>31.46</v>
@@ -1366,15 +1377,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>94</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>98</v>
+      </c>
+      <c r="B38" s="3">
         <v>75.319999999999993</v>
       </c>
       <c r="C38" s="1">
-        <v>10.73</v>
+        <v>11.35</v>
       </c>
       <c r="D38" s="1">
         <v>31.51</v>
@@ -1383,11 +1394,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>94</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>98</v>
+      </c>
+      <c r="B39" s="3">
         <v>75.040000000000006</v>
       </c>
       <c r="C39" s="1">
@@ -1400,11 +1411,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>72</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>99</v>
+      </c>
+      <c r="B40" s="3">
         <v>75.739999999999995</v>
       </c>
       <c r="C40" s="1">
@@ -1417,11 +1428,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>94</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>97</v>
+      </c>
+      <c r="B41" s="3">
         <v>73.34</v>
       </c>
       <c r="C41" s="1">
@@ -1434,15 +1445,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>94</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>98</v>
+      </c>
+      <c r="B42" s="3">
         <v>77.48</v>
       </c>
       <c r="C42" s="1">
-        <v>15.89</v>
+        <v>13.24</v>
       </c>
       <c r="D42" s="1">
         <v>32.22</v>
@@ -1451,11 +1462,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>94</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3">
         <v>76.260000000000005</v>
       </c>
       <c r="C43" s="1">
@@ -1468,15 +1479,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>93</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3">
         <v>78.56</v>
       </c>
       <c r="C44" s="1">
-        <v>15.1</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="D44" s="1">
         <v>32.54</v>
@@ -1485,15 +1496,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3">
         <v>78.819999999999993</v>
       </c>
       <c r="C45" s="1">
-        <v>16.14</v>
+        <v>14.32</v>
       </c>
       <c r="D45" s="1">
         <v>32.65</v>
@@ -1502,15 +1513,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3">
         <v>72.95</v>
       </c>
       <c r="C46" s="1">
-        <v>30.67</v>
+        <v>17.21</v>
       </c>
       <c r="D46" s="1">
         <v>33.26</v>
@@ -1519,15 +1530,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>96</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>98</v>
+      </c>
+      <c r="B47" s="3">
         <v>75.27</v>
       </c>
       <c r="C47" s="1">
-        <v>18.23</v>
+        <v>15.34</v>
       </c>
       <c r="D47" s="1">
         <v>33.299999999999997</v>
@@ -1536,15 +1547,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>95</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>97</v>
+      </c>
+      <c r="B48" s="3">
         <v>76.86</v>
       </c>
       <c r="C48" s="1">
-        <v>29.75</v>
+        <v>15.36</v>
       </c>
       <c r="D48" s="1">
         <v>33.33</v>
@@ -1553,15 +1564,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3">
         <v>78.56</v>
       </c>
       <c r="C49" s="1">
-        <v>31.51</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="D49" s="1">
         <v>33.36</v>
@@ -1570,15 +1581,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>96</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>98</v>
+      </c>
+      <c r="B50" s="3">
         <v>76.66</v>
       </c>
       <c r="C50" s="1">
-        <v>32.72</v>
+        <v>15.64</v>
       </c>
       <c r="D50" s="1">
         <v>33.380000000000003</v>
@@ -1587,15 +1598,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>95</v>
-      </c>
-      <c r="B51" s="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3">
         <v>76.989999999999995</v>
       </c>
       <c r="C51" s="1">
-        <v>19.78</v>
+        <v>15.63</v>
       </c>
       <c r="D51" s="1">
         <v>33.4</v>
@@ -1604,15 +1615,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>96</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>74.13</v>
       </c>
       <c r="C52" s="1">
-        <v>26.5</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D52" s="1">
         <v>33.450000000000003</v>
@@ -1621,15 +1632,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>96</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>98</v>
+      </c>
+      <c r="B53" s="3">
         <v>76.260000000000005</v>
       </c>
       <c r="C53" s="1">
-        <v>20.11</v>
+        <v>16.23</v>
       </c>
       <c r="D53" s="1">
         <v>33.57</v>
@@ -1638,15 +1649,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>97</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>97</v>
+      </c>
+      <c r="B54" s="3">
         <v>77.52</v>
       </c>
       <c r="C54" s="1">
-        <v>29.3</v>
+        <v>18.47</v>
       </c>
       <c r="D54" s="1">
         <v>33.72</v>
@@ -1655,15 +1666,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>97</v>
-      </c>
-      <c r="B55" s="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>99</v>
+      </c>
+      <c r="B55" s="3">
         <v>76.260000000000005</v>
       </c>
       <c r="C55" s="1">
-        <v>32.770000000000003</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="D55" s="1">
         <v>33.770000000000003</v>
@@ -1672,15 +1683,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>96</v>
-      </c>
-      <c r="B56" s="1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>98</v>
+      </c>
+      <c r="B56" s="3">
         <v>75.98</v>
       </c>
       <c r="C56" s="1">
-        <v>23.72</v>
+        <v>18.36</v>
       </c>
       <c r="D56" s="1">
         <v>33.81</v>
@@ -1689,15 +1700,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>97</v>
-      </c>
-      <c r="B57" s="1">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>97</v>
+      </c>
+      <c r="B57" s="3">
         <v>79.97</v>
       </c>
       <c r="C57" s="1">
-        <v>22.9</v>
+        <v>14.36</v>
       </c>
       <c r="D57" s="1">
         <v>33.869999999999997</v>
@@ -1706,15 +1717,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>96</v>
-      </c>
-      <c r="B58" s="1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>97</v>
+      </c>
+      <c r="B58" s="3">
         <v>78.790000000000006</v>
       </c>
       <c r="C58" s="1">
-        <v>30.91</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D58" s="1">
         <v>33.9</v>
@@ -1723,15 +1734,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>97</v>
-      </c>
-      <c r="B59" s="1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>97</v>
+      </c>
+      <c r="B59" s="3">
         <v>74.61</v>
       </c>
       <c r="C59" s="1">
-        <v>28.44</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="D59" s="1">
         <v>33.9</v>
@@ -1740,15 +1751,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>96</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>76.05</v>
       </c>
       <c r="C60" s="1">
-        <v>26.35</v>
+        <v>16.47</v>
       </c>
       <c r="D60" s="1">
         <v>33.909999999999997</v>
@@ -1757,15 +1768,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>95</v>
-      </c>
-      <c r="B61" s="1">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>98</v>
+      </c>
+      <c r="B61" s="3">
         <v>76.31</v>
       </c>
       <c r="C61" s="1">
-        <v>28.71</v>
+        <v>17.36</v>
       </c>
       <c r="D61" s="1">
         <v>33.92</v>
@@ -1774,11 +1785,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>98</v>
-      </c>
-      <c r="B62" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>98</v>
+      </c>
+      <c r="B62" s="3">
         <v>74.64</v>
       </c>
       <c r="C62" s="1">
@@ -1791,15 +1802,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>97</v>
-      </c>
-      <c r="B63" s="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>97</v>
+      </c>
+      <c r="B63" s="3">
         <v>75.23</v>
       </c>
       <c r="C63" s="1">
-        <v>23.53</v>
+        <v>16.32</v>
       </c>
       <c r="D63" s="1">
         <v>33.909999999999997</v>
@@ -1808,15 +1819,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>96</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>73.62</v>
       </c>
       <c r="C64" s="1">
-        <v>24.47</v>
+        <v>15.24</v>
       </c>
       <c r="D64" s="1">
         <v>33.94</v>
@@ -1825,15 +1836,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>95</v>
-      </c>
-      <c r="B65" s="1">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>98</v>
+      </c>
+      <c r="B65" s="3">
         <v>75.39</v>
       </c>
       <c r="C65" s="1">
-        <v>16.45</v>
+        <v>14.45</v>
       </c>
       <c r="D65" s="1">
         <v>33.89</v>
@@ -1842,15 +1853,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>97</v>
-      </c>
-      <c r="B66" s="1">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>97</v>
+      </c>
+      <c r="B66" s="3">
         <v>78.58</v>
       </c>
       <c r="C66" s="1">
-        <v>26.04</v>
+        <v>18.34</v>
       </c>
       <c r="D66" s="1">
         <v>33.89</v>
@@ -1859,15 +1870,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>98</v>
+      </c>
+      <c r="B67" s="3">
         <v>78.73</v>
       </c>
       <c r="C67" s="1">
-        <v>34.44</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="D67" s="1">
         <v>33.89</v>
@@ -1876,15 +1887,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>96</v>
-      </c>
-      <c r="B68" s="1">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>97</v>
+      </c>
+      <c r="B68" s="3">
         <v>79.349999999999994</v>
       </c>
       <c r="C68" s="1">
-        <v>27.91</v>
+        <v>15.87</v>
       </c>
       <c r="D68" s="1">
         <v>33.909999999999997</v>
@@ -1893,11 +1904,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>99</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>79.66</v>
       </c>
       <c r="C69" s="1">
@@ -1910,15 +1921,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>96</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>98</v>
+      </c>
+      <c r="B70" s="3">
         <v>84.84</v>
       </c>
       <c r="C70" s="1">
-        <v>29.75</v>
+        <v>18.36</v>
       </c>
       <c r="D70" s="1">
         <v>33.93</v>
@@ -1927,15 +1938,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>97</v>
-      </c>
-      <c r="B71" s="1">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>97</v>
+      </c>
+      <c r="B71" s="3">
         <v>81.42</v>
       </c>
       <c r="C71" s="1">
-        <v>30.5</v>
+        <v>19.36</v>
       </c>
       <c r="D71" s="1">
         <v>33.950000000000003</v>
@@ -1944,15 +1955,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>93</v>
-      </c>
-      <c r="B72" s="1">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>98</v>
+      </c>
+      <c r="B72" s="3">
         <v>84.62</v>
       </c>
       <c r="C72" s="1">
-        <v>26.74</v>
+        <v>18.48</v>
       </c>
       <c r="D72" s="1">
         <v>33.950000000000003</v>
@@ -1961,11 +1972,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>95</v>
-      </c>
-      <c r="B73" s="1">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>98</v>
+      </c>
+      <c r="B73" s="3">
         <v>87.15</v>
       </c>
       <c r="C73" s="1">
@@ -1978,15 +1989,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>94</v>
-      </c>
-      <c r="B74" s="1">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>98</v>
+      </c>
+      <c r="B74" s="3">
         <v>84.73</v>
       </c>
       <c r="C74" s="1">
-        <v>27.4</v>
+        <v>22.36</v>
       </c>
       <c r="D74" s="1">
         <v>31.62</v>
@@ -1995,15 +2006,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>97</v>
-      </c>
-      <c r="B75" s="1">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>97</v>
+      </c>
+      <c r="B75" s="3">
         <v>85.61</v>
       </c>
       <c r="C75" s="1">
-        <v>34.56</v>
+        <v>23.71</v>
       </c>
       <c r="D75" s="1">
         <v>31.94</v>
@@ -2012,15 +2023,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>97</v>
-      </c>
-      <c r="B76" s="1">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>98</v>
+      </c>
+      <c r="B76" s="3">
         <v>86.05</v>
       </c>
       <c r="C76" s="1">
-        <v>30.26</v>
+        <v>24.68</v>
       </c>
       <c r="D76" s="1">
         <v>32</v>
@@ -2029,15 +2040,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>97</v>
-      </c>
-      <c r="B77" s="1">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>97</v>
+      </c>
+      <c r="B77" s="3">
         <v>88.12</v>
       </c>
       <c r="C77" s="1">
-        <v>32.47</v>
+        <v>23.49</v>
       </c>
       <c r="D77" s="1">
         <v>32.18</v>
@@ -2046,15 +2057,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>97</v>
-      </c>
-      <c r="B78" s="1">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>98</v>
+      </c>
+      <c r="B78" s="3">
         <v>86.76</v>
       </c>
       <c r="C78" s="1">
-        <v>25.67</v>
+        <v>21.39</v>
       </c>
       <c r="D78" s="1">
         <v>32.29</v>
@@ -2063,15 +2074,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>97</v>
-      </c>
-      <c r="B79" s="1">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>97</v>
+      </c>
+      <c r="B79" s="3">
         <v>87.97</v>
       </c>
       <c r="C79" s="1">
-        <v>33.89</v>
+        <v>24.29</v>
       </c>
       <c r="D79" s="1">
         <v>32.380000000000003</v>
@@ -2080,15 +2091,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>97</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>99</v>
+      </c>
+      <c r="B80" s="3">
         <v>89.96</v>
       </c>
       <c r="C80" s="1">
-        <v>21.32</v>
+        <v>23.48</v>
       </c>
       <c r="D80" s="1">
         <v>32.479999999999997</v>
@@ -2097,11 +2108,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>95</v>
-      </c>
-      <c r="B81" s="1">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>98</v>
+      </c>
+      <c r="B81" s="3">
         <v>85.26</v>
       </c>
       <c r="C81" s="1">
@@ -2114,15 +2125,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>94</v>
-      </c>
-      <c r="B82" s="1">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>97</v>
+      </c>
+      <c r="B82" s="3">
         <v>87.72</v>
       </c>
       <c r="C82" s="1">
-        <v>25.59</v>
+        <v>24.58</v>
       </c>
       <c r="D82" s="1">
         <v>32.54</v>
@@ -2131,15 +2142,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>97</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>97</v>
+      </c>
+      <c r="B83" s="3">
         <v>87.32</v>
       </c>
       <c r="C83" s="1">
-        <v>23.73</v>
+        <v>22.09</v>
       </c>
       <c r="D83" s="1">
         <v>32.58</v>
@@ -2148,15 +2159,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>95</v>
-      </c>
-      <c r="B84" s="1">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>98</v>
+      </c>
+      <c r="B84" s="3">
         <v>87.29</v>
       </c>
       <c r="C84" s="1">
-        <v>22.74</v>
+        <v>24.26</v>
       </c>
       <c r="D84" s="1">
         <v>32.6</v>
@@ -2165,11 +2176,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>97</v>
-      </c>
-      <c r="B85" s="1">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>97</v>
+      </c>
+      <c r="B85" s="3">
         <v>86.09</v>
       </c>
       <c r="C85" s="1">
@@ -2182,15 +2193,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>95</v>
-      </c>
-      <c r="B86" s="1">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>98</v>
+      </c>
+      <c r="B86" s="3">
         <v>86.55</v>
       </c>
       <c r="C86" s="1">
-        <v>28.47</v>
+        <v>23.54</v>
       </c>
       <c r="D86" s="1">
         <v>32.72</v>
@@ -2199,15 +2210,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>97</v>
-      </c>
-      <c r="B87" s="1">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>97</v>
+      </c>
+      <c r="B87" s="3">
         <v>86.19</v>
       </c>
       <c r="C87" s="1">
-        <v>26.17</v>
+        <v>24.17</v>
       </c>
       <c r="D87" s="1">
         <v>32.78</v>
@@ -2216,11 +2227,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>96</v>
-      </c>
-      <c r="B88" s="1">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>97</v>
+      </c>
+      <c r="B88" s="3">
         <v>87.85</v>
       </c>
       <c r="C88" s="1">
@@ -2233,11 +2244,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>97</v>
-      </c>
-      <c r="B89" s="1">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>98</v>
+      </c>
+      <c r="B89" s="3">
         <v>87.78</v>
       </c>
       <c r="C89" s="1">
@@ -2250,15 +2261,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>97</v>
-      </c>
-      <c r="B90" s="1">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>97</v>
+      </c>
+      <c r="B90" s="3">
         <v>89.22</v>
       </c>
       <c r="C90" s="1">
-        <v>26.07</v>
+        <v>22.14</v>
       </c>
       <c r="D90" s="1">
         <v>32.94</v>
@@ -2267,11 +2278,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>97</v>
-      </c>
-      <c r="B91" s="1">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3">
         <v>87.04</v>
       </c>
       <c r="C91" s="1">
@@ -2284,11 +2295,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>97</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>97</v>
+      </c>
+      <c r="B92" s="3">
         <v>85.52</v>
       </c>
       <c r="C92" s="1">
@@ -2301,11 +2312,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>96</v>
-      </c>
-      <c r="B93" s="1">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>99</v>
+      </c>
+      <c r="B93" s="3">
         <v>83.45</v>
       </c>
       <c r="C93" s="1">
@@ -2318,11 +2329,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>97</v>
-      </c>
-      <c r="B94" s="1">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3">
         <v>87.62</v>
       </c>
       <c r="C94" s="1">
@@ -2335,15 +2346,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>84</v>
-      </c>
-      <c r="B95" s="1">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>98</v>
+      </c>
+      <c r="B95" s="3">
         <v>85.62</v>
       </c>
       <c r="C95" s="1">
-        <v>30.05</v>
+        <v>22.96</v>
       </c>
       <c r="D95" s="1">
         <v>33.22</v>
@@ -2352,15 +2363,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>97</v>
-      </c>
-      <c r="B96" s="1">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>97</v>
+      </c>
+      <c r="B96" s="3">
         <v>86.32</v>
       </c>
       <c r="C96" s="1">
-        <v>24.46</v>
+        <v>23.54</v>
       </c>
       <c r="D96" s="1">
         <v>33.270000000000003</v>
@@ -2369,15 +2380,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>97</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>98</v>
+      </c>
+      <c r="B97" s="3">
         <v>85.94</v>
       </c>
       <c r="C97" s="1">
-        <v>28.75</v>
+        <v>22.75</v>
       </c>
       <c r="D97" s="1">
         <v>33.33</v>
@@ -2386,15 +2397,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
         <v>87.15</v>
       </c>
       <c r="C98" s="1">
-        <v>28.23</v>
+        <v>23.23</v>
       </c>
       <c r="D98" s="1">
         <v>33.43</v>
@@ -2403,15 +2414,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
         <v>89.97</v>
       </c>
       <c r="C99" s="1">
-        <v>26.24</v>
+        <v>22.21</v>
       </c>
       <c r="D99" s="1">
         <v>33.47</v>
@@ -2420,11 +2431,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>96</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
         <v>84.65</v>
       </c>
       <c r="C100" s="1">
@@ -2437,11 +2448,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>97</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>97</v>
+      </c>
+      <c r="B101" s="3">
         <v>84.06</v>
       </c>
       <c r="C101" s="1">
@@ -2454,11 +2465,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>97</v>
-      </c>
-      <c r="B102" s="1">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
         <v>83.71</v>
       </c>
       <c r="C102" s="1">
@@ -2471,15 +2482,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>97</v>
-      </c>
-      <c r="B103" s="1">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>97</v>
+      </c>
+      <c r="B103" s="3">
         <v>86.94</v>
       </c>
       <c r="C103" s="1">
-        <v>28.57</v>
+        <v>25.57</v>
       </c>
       <c r="D103" s="1">
         <v>33.630000000000003</v>
@@ -2488,11 +2499,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>97</v>
-      </c>
-      <c r="B104" s="1">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="3">
         <v>83.75</v>
       </c>
       <c r="C104" s="1">
@@ -2505,15 +2516,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>97</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>97</v>
+      </c>
+      <c r="B105" s="3">
         <v>81.239999999999995</v>
       </c>
       <c r="C105" s="1">
-        <v>31.32</v>
+        <v>22.32</v>
       </c>
       <c r="D105" s="1">
         <v>33.700000000000003</v>
@@ -2522,15 +2533,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>97</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>98</v>
+      </c>
+      <c r="B106" s="3">
         <v>88.16</v>
       </c>
       <c r="C106" s="1">
-        <v>26.25</v>
+        <v>21.25</v>
       </c>
       <c r="D106" s="1">
         <v>33.75</v>
@@ -2539,15 +2550,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>96</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>97</v>
+      </c>
+      <c r="B107" s="3">
         <v>86.74</v>
       </c>
       <c r="C107" s="1">
-        <v>24.26</v>
+        <v>23.26</v>
       </c>
       <c r="D107" s="1">
         <v>33.799999999999997</v>
@@ -2556,11 +2567,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>84</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>98</v>
+      </c>
+      <c r="B108" s="3">
         <v>84.74</v>
       </c>
       <c r="C108" s="1">
@@ -2573,15 +2584,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>97</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>97</v>
+      </c>
+      <c r="B109" s="3">
         <v>85.77</v>
       </c>
       <c r="C109" s="1">
-        <v>26.09</v>
+        <v>22.09</v>
       </c>
       <c r="D109" s="1">
         <v>33.840000000000003</v>
@@ -2590,11 +2601,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>95</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>98</v>
+      </c>
+      <c r="B110" s="3">
         <v>86.14</v>
       </c>
       <c r="C110" s="1">
@@ -2607,15 +2618,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>96</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>97</v>
+      </c>
+      <c r="B111" s="3">
         <v>85.36</v>
       </c>
       <c r="C111" s="1">
-        <v>26.31</v>
+        <v>22.31</v>
       </c>
       <c r="D111" s="1">
         <v>33.880000000000003</v>
@@ -2624,15 +2635,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>93</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>97</v>
+      </c>
+      <c r="B112" s="3">
         <v>87.37</v>
       </c>
       <c r="C112" s="1">
-        <v>28.48</v>
+        <v>24.48</v>
       </c>
       <c r="D112" s="1">
         <v>33.85</v>
@@ -2641,11 +2652,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>93</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>98</v>
+      </c>
+      <c r="B113" s="3">
         <v>84.69</v>
       </c>
       <c r="C113" s="1">
@@ -2658,11 +2669,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>98</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>98</v>
+      </c>
+      <c r="B114" s="3">
         <v>86.57</v>
       </c>
       <c r="C114" s="1">
@@ -2675,11 +2686,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>97</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>97</v>
+      </c>
+      <c r="B115" s="3">
         <v>86.05</v>
       </c>
       <c r="C115" s="1">
@@ -2692,15 +2703,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>96</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>98</v>
+      </c>
+      <c r="B116" s="3">
         <v>86.63</v>
       </c>
       <c r="C116" s="1">
-        <v>33.31</v>
+        <v>23.31</v>
       </c>
       <c r="D116" s="1">
         <v>33.89</v>
@@ -2709,11 +2720,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>97</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>97</v>
+      </c>
+      <c r="B117" s="3">
         <v>86.59</v>
       </c>
       <c r="C117" s="1">
@@ -2726,15 +2737,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>98</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>98</v>
+      </c>
+      <c r="B118" s="3">
         <v>87.21</v>
       </c>
       <c r="C118" s="1">
-        <v>29.44</v>
+        <v>22.37</v>
       </c>
       <c r="D118" s="1">
         <v>33.909999999999997</v>
@@ -2743,15 +2754,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>95</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>98</v>
+      </c>
+      <c r="B119" s="3">
         <v>86.58</v>
       </c>
       <c r="C119" s="1">
-        <v>28.45</v>
+        <v>21.34</v>
       </c>
       <c r="D119" s="1">
         <v>33.880000000000003</v>
